--- a/webapp/static/files/import-pos-sample.xlsx
+++ b/webapp/static/files/import-pos-sample.xlsx
@@ -50,7 +50,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收费/不收费</t>
+    <t>有租金/无租金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -58,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +80,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -106,11 +114,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -407,22 +421,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.875" customWidth="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1"/>
-    <col min="8" max="8" width="25.125" customWidth="1"/>
-    <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="9.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
@@ -453,6 +470,17 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
